--- a/biology/Zoologie/Altispinax/Altispinax.xlsx
+++ b/biology/Zoologie/Altispinax/Altispinax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Altispinax (« grande épine ») est un nomen dubium[1], on le connaît seulement à partir d’une dent. Altispinax était un grand dinosaure carnivore d’à peu près 9 m de long, pesant environ deux tonnes. C'était un théropode bipède vivant au début du Crétacé (Aptien, donc de 125 à 113 millions d’années) en Angleterre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Altispinax (« grande épine ») est un nomen dubium, on le connaît seulement à partir d’une dent. Altispinax était un grand dinosaure carnivore d’à peu près 9 m de long, pesant environ deux tonnes. C'était un théropode bipède vivant au début du Crétacé (Aptien, donc de 125 à 113 millions d’années) en Angleterre.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom signifie « grande épine ».
-Altispinax dunkeri a été nommé par le paléontologue Friedrich von Huene[2] en 1923. 
-À l'origine, les restes de ce théropode furent décrits par Dames en 1884 sous le nom de Megalosaurus dunkeri ; c'est Friedrich von Huene[2] qui le renomma Altispinax.
+Altispinax dunkeri a été nommé par le paléontologue Friedrich von Huene en 1923. 
+À l'origine, les restes de ce théropode furent décrits par Dames en 1884 sous le nom de Megalosaurus dunkeri ; c'est Friedrich von Huene qui le renomma Altispinax.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>† Altispinax (Megalosaurus) dunkeri (Huene, 1923[2])
-† Altispinax parkeri (von Huene, 1923[2]/von Huene, 1932), synonyme junior de Metriacanthosaurus parkeri[3]
-† Altispinax oweni (Lydekker, 1889/von Huene, 1923[2]) synonyme junior de Valdoraptor oweni[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>† Altispinax (Megalosaurus) dunkeri (Huene, 1923)
+† Altispinax parkeri (von Huene, 1923/von Huene, 1932), synonyme junior de Metriacanthosaurus parkeri
+† Altispinax oweni (Lydekker, 1889/von Huene, 1923) synonyme junior de Valdoraptor oweni
 † Altispinax lydekkerhueneorum (Pickering, 1994 vide Pickering, 1995)</t>
         </is>
       </c>
